--- a/excel/excel-training/Level 2/Common Lookup Formula Errors - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Common Lookup Formula Errors - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Excel Campus\Courses\Elevate\Course Files\Published\Level 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E37D71-D2B1-48A2-B568-0765D6FB0C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE67F9-310B-FF4B-BD2E-4B3C51273119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Errors Overview" sheetId="2" r:id="rId1"/>
@@ -41,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="81">
   <si>
     <t>Emp ID</t>
   </si>
@@ -279,6 +301,12 @@
   </si>
   <si>
     <t>10005</t>
+  </si>
+  <si>
+    <t>Trimmed Name</t>
+  </si>
+  <si>
+    <t>Cleaned Name</t>
   </si>
 </sst>
 </file>
@@ -290,7 +318,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -377,6 +405,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,7 +560,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,6 +619,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1685,6 +1722,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>2</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1951,19 +2046,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="179" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="31" t="s">
         <v>27</v>
@@ -1972,7 +2067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
     </row>
   </sheetData>
@@ -1991,17 +2086,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="32" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="32"/>
-    <col min="6" max="6" width="19.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="19.796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="32" customWidth="1"/>
+    <col min="4" max="5" width="9.19921875" style="32"/>
+    <col min="6" max="6" width="19.796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2054,7 +2149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -2108,7 +2203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -2126,7 +2221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -2140,7 +2235,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2154,7 +2249,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2168,7 +2263,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2275,7 @@
         <v>39898</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -2202,26 +2297,27 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" zoomScale="142" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="17.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
@@ -2236,7 +2332,7 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -2248,16 +2344,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="36">
-        <f>COUNTIF($A$10:$A$17,A4)</f>
+        <f>COUNTIF(A10:A17,A4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2286,7 +2382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2303,7 +2399,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2416,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
@@ -2337,7 +2433,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2450,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -2371,7 +2467,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
@@ -2388,7 +2484,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
@@ -2405,7 +2501,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
@@ -2433,27 +2529,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="118" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="17.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="6.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>40</v>
       </c>
@@ -2464,7 +2561,7 @@
       <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
@@ -2478,7 +2575,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>36</v>
       </c>
@@ -2490,12 +2587,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="8">
+        <f>VLOOKUP(A7,$A$11:$F$15,6,FALSE)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10001</v>
       </c>
@@ -2535,7 +2641,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>10002</v>
       </c>
@@ -2555,7 +2661,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>10003</v>
       </c>
@@ -2575,7 +2681,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>10004</v>
       </c>
@@ -2595,7 +2701,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>10005</v>
       </c>
@@ -2615,7 +2721,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="37">
         <v>10001</v>
       </c>
@@ -2627,12 +2733,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>36</v>
       </c>
@@ -2672,7 +2778,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
         <v>75</v>
       </c>
@@ -2692,7 +2798,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>76</v>
       </c>
@@ -2712,7 +2818,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>77</v>
       </c>
@@ -2732,7 +2838,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>78</v>
       </c>
@@ -2765,26 +2871,26 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
@@ -2798,110 +2904,157 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8" t="e">
-        <f>VLOOKUP(A4,$B$8:$C$15,3,FALSE)</f>
+        <f>VLOOKUP(A4,$C$8:$D$15,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>VLOOKUP(A5,$B$8:$D$15,3,FALSE)</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="str">
+        <f>TRIM(C8)</f>
+        <v>DeRusha, Joe</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="str">
+        <f t="shared" ref="B9:B15" si="0">TRIM(C9)</f>
+        <v>De Pasquale, Richard</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="str">
+        <f>TRIM(C10)</f>
+        <v>Dobbert, Susan</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dillard, Susan</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dunton, Donna</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>De Vries, John</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>De Sousa, Kristi</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Defonso, Daniel</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>29</v>
       </c>
@@ -2917,95 +3070,137 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="8" t="e">
-        <f>VLOOKUP(A27,$B$31:$C$38,2,FALSE)</f>
+        <f>VLOOKUP(A27,$C$31:$D$38,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f>VLOOKUP(A28,$B$31:$D$38,3,FALSE)</f>
+        <v>East</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="str">
+        <f>CLEAN(C31)</f>
+        <v>DeRusha, Joe</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="str">
+        <f t="shared" ref="B32:B38" si="1">CLEAN(C32)</f>
+        <v>De Pasquale, Richard</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dobbert, Susan</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dillard, Susan</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dunton, Donna</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>De Vries, John</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>De Sousa, Kristi</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Defonso, Daniel</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3020,29 +3215,29 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>29</v>
       </c>
@@ -3054,7 +3249,7 @@
       </c>
       <c r="D4" s="25"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -3066,11 +3261,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="e">
+      <c r="B6" s="8" t="e" vm="1">
         <f>VLOOKUP(A6,$A$12:$B$19,0,FALSE)</f>
         <v>#VALUE!</v>
       </c>
@@ -3078,7 +3273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -3094,7 +3289,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
@@ -3106,7 +3301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -3122,7 +3317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
@@ -3130,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
@@ -3138,7 +3333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -3146,7 +3341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>65</v>
       </c>
@@ -3154,7 +3349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -3162,7 +3357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -3170,7 +3365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
@@ -3189,28 +3384,28 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
@@ -3221,46 +3416,46 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8" t="str">
-        <f t="shared" ref="B4:B7" si="0">VLOOKUP(A4,$A$12:$C$19,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(A4,$A$12:$C$19,2,FALSE),"Not Found")</f>
         <v>East</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="B5" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A5,$A$12:$C$19,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:B7" si="0">IFERROR(VLOOKUP(A6,$A$12:$C$19,2,FALSE),"Not Found")</f>
         <v>West</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="8" t="e">
+      <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -3282,7 +3477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
@@ -3293,7 +3488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
@@ -3304,7 +3499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -3315,7 +3510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
@@ -3326,7 +3521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +3532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -3348,7 +3543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
